--- a/Projects/project-1-master/code/final_2.xlsx
+++ b/Projects/project-1-master/code/final_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aidancurley/Documents/dsir/Submissions/Projects/project-1-master/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0E431D54-FB2B-7B45-9B8A-08ADF5F4367F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BA2367D-C515-6743-BC87-911123D91DD4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -676,7 +676,7 @@
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="AB13" sqref="AB13"/>
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
